--- a/SP_Sklad/TempLate/BarCode.xlsx
+++ b/SP_Sklad/TempLate/BarCode.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="range1">Лист1!$A$1:$A$3</definedName>
+    <definedName name="range1">Лист1!$A$1:$A$4</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -19,7 +19,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -38,6 +38,13 @@
       <sz val="36"/>
       <color theme="1"/>
       <name val="Free 3 of 9 Extended"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -60,12 +67,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -368,11 +376,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="200" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="200" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -392,6 +398,12 @@
         <v>#NAME?</v>
       </c>
     </row>
+    <row r="3" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A3" s="3" t="e">
+        <f>range1_BarCode</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="153" scale="70" orientation="portrait" r:id="rId1"/>

--- a/SP_Sklad/TempLate/BarCode.xlsx
+++ b/SP_Sklad/TempLate/BarCode.xlsx
@@ -11,7 +11,6 @@
   </sheets>
   <definedNames>
     <definedName name="range1">Лист1!$A$1:$A$4</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!#REF!</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -69,11 +68,15 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -386,26 +389,26 @@
     <col min="3" max="3" width="54.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75">
-      <c r="A1" s="2" t="e">
+    <row r="1" spans="1:1" ht="18" customHeight="1">
+      <c r="A1" s="3" t="e">
         <f>range1_LabelDescr</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="41.25">
-      <c r="A2" s="1" t="e">
+    <row r="2" spans="1:1" ht="28.5" customHeight="1">
+      <c r="A2" s="2" t="e">
         <f>"*"&amp;range1_BarCode&amp;"*"</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="13.5" customHeight="1">
-      <c r="A3" s="3" t="e">
+      <c r="A3" s="1" t="e">
         <f>range1_BarCode</f>
         <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="153" scale="70" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="153" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>